--- a/assets/disciplinas/LOM3239.xlsx
+++ b/assets/disciplinas/LOM3239.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Propiciar ao aluno os instrumentos necessários à administração e implementação de projetos.</t>
+    <t>519033 - Carlos Yujiro Shigue</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>519033 - Carlos Yujiro Shigue</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Metodologia para administração de projetos. Aplicação de princípios físicos no projeto e construção de aparelho ou equipamento ou desenvolvimento de método ou técnica analítica, sob supervisão de um professor ou profissional atuante no meio empresarial.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,9 +91,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>Apresentação de projetos. Metodologias de administração de projetos. Administração de recursos humanos nos projetos: equipes, motivação. Aspectos tecnológicos: seleção da configuração, administração e controle. Controle de projetos (objetivos, meios, instrumentos). Elaboração de proposta de projeto sob supervisão de professor ou profissional credenciado pela Comissão de Curso. Apresentação do projeto no final da disciplina.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -106,29 +100,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Aulas expositivas, reuniões com supervisor, desenvolvimento e elaboração de projeto.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Nota de avaliação do projeto.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>A critério da Comissão de Curso poderá ser oferecida recuperação.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>MAXIMIANO, A . C. Administração de projetos, Atlas: São Paulo, 1997.
-BUARQUE, C.Avaliação Econômica de Projetos. Ed. Campus, 1984. 
-CLIFTON, D. S.; FYFFE, D. E. Project feasibility analysis, John Wiley and Sons, New York, 1977. 
-EHRLLICH, P. J., Avaliação e seleção de projetos de investimento, critérios quantitativos, Ed. Atlas, São Paulo 1979. 
-LAPONI, J. C., Modelos para a Avaliação Econômica de Projetos de Investimento, Ed. J. C. Laponi.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -495,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -620,114 +607,106 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>37</v>
+      <c r="C23" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1">
-      <c r="B25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
